--- a/GrowDataBank.xlsx
+++ b/GrowDataBank.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubhankit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sysga\OneDrive\Desktop\GrowDataBank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DCF7C0-649A-4F72-8B28-A82324A0CA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C44A3E-6786-4855-883A-D7DBAF38B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{475FB684-627B-4619-A145-D8FAF23C2BF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{475FB684-627B-4619-A145-D8FAF23C2BF2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Savings Accoun Transaction Data" sheetId="3" r:id="rId1"/>
+    <sheet name="SavingsAccountTransaction Data" sheetId="3" r:id="rId1"/>
     <sheet name="Loan Account Data" sheetId="4" r:id="rId2"/>
     <sheet name="Credit Card Data" sheetId="7" r:id="rId3"/>
   </sheets>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7FC14B-2A46-4C4B-B870-2538088A052B}">
   <dimension ref="A1:A355"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3473,7 +3473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CF79AC-1BB2-43DF-A8E4-ED0B466DA6D7}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
